--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13350" windowHeight="6110"/>
+    <workbookView windowWidth="10190" windowHeight="6110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Key</t>
   </si>
@@ -40,16 +40,22 @@
     <t>英文</t>
   </si>
   <si>
-    <t>标题</t>
+    <t>登录</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Login</t>
   </si>
   <si>
-    <t>MMO</t>
+    <t>注册</t>
   </si>
   <si>
-    <t>大型多人在线</t>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>Quit</t>
   </si>
 </sst>
 </file>
@@ -980,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
@@ -1020,10 +1026,21 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Key</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>Quit</t>
+  </si>
+  <si>
+    <t>请输入账号</t>
+  </si>
+  <si>
+    <t>Please enter your account</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>Please enter the password</t>
+  </si>
+  <si>
+    <t>请再次确认密码</t>
+  </si>
+  <si>
+    <t>Please confirm the password again</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>Registered successfully</t>
   </si>
 </sst>
 </file>
@@ -986,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
@@ -1041,6 +1065,50 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10190" windowHeight="6110"/>
+    <workbookView windowWidth="8520" windowHeight="8140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Key</t>
   </si>
@@ -80,6 +80,39 @@
   </si>
   <si>
     <t>Registered successfully</t>
+  </si>
+  <si>
+    <t>记住账号</t>
+  </si>
+  <si>
+    <t>Remember the account</t>
+  </si>
+  <si>
+    <t>AccountFormat</t>
+  </si>
+  <si>
+    <t>账号格式异常</t>
+  </si>
+  <si>
+    <t>Account Format Abnormal</t>
+  </si>
+  <si>
+    <t>NameDuplication</t>
+  </si>
+  <si>
+    <t>用户名重复</t>
+  </si>
+  <si>
+    <t>Use Name Duplication</t>
+  </si>
+  <si>
+    <t>NameOrPassword</t>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
+  </si>
+  <si>
+    <t>The account number or password is incorrect</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
@@ -1109,6 +1142,50 @@
       </c>
       <c r="C8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8520" windowHeight="8140"/>
+    <workbookView windowWidth="10190" windowHeight="8140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Key</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>The account number or password is incorrect</t>
+  </si>
+  <si>
+    <t>AccountRepeatLogin</t>
+  </si>
+  <si>
+    <t>账号重复登录</t>
+  </si>
+  <si>
+    <t>Account repeat login</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1186,6 +1195,17 @@
       </c>
       <c r="C12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10190" windowHeight="8140"/>
+    <workbookView windowWidth="12490" windowHeight="8140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Key</t>
   </si>
@@ -86,6 +86,27 @@
   </si>
   <si>
     <t>Remember the account</t>
+  </si>
+  <si>
+    <t>继续游戏</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>游戏设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>返回菜单</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
   </si>
   <si>
     <t>AccountFormat</t>
@@ -1052,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1169,43 +1190,87 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
         <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12490" windowHeight="8140"/>
+    <workbookView windowWidth="10820" windowHeight="8140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Key</t>
   </si>
@@ -40,6 +40,42 @@
     <t>英文</t>
   </si>
   <si>
+    <t>AccountFormat</t>
+  </si>
+  <si>
+    <t>账号格式异常</t>
+  </si>
+  <si>
+    <t>Account Format Abnormal</t>
+  </si>
+  <si>
+    <t>NameDuplication</t>
+  </si>
+  <si>
+    <t>用户名重复</t>
+  </si>
+  <si>
+    <t>Use Name Duplication</t>
+  </si>
+  <si>
+    <t>NameOrPassword</t>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
+  </si>
+  <si>
+    <t>The account number or password is incorrect</t>
+  </si>
+  <si>
+    <t>AccountRepeatLogin</t>
+  </si>
+  <si>
+    <t>账号重复登录</t>
+  </si>
+  <si>
+    <t>Account repeat login</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -109,40 +145,25 @@
     <t>退出游戏</t>
   </si>
   <si>
-    <t>AccountFormat</t>
-  </si>
-  <si>
-    <t>账号格式异常</t>
-  </si>
-  <si>
-    <t>Account Format Abnormal</t>
-  </si>
-  <si>
-    <t>NameDuplication</t>
-  </si>
-  <si>
-    <t>用户名重复</t>
-  </si>
-  <si>
-    <t>Use Name Duplication</t>
-  </si>
-  <si>
-    <t>NameOrPassword</t>
-  </si>
-  <si>
-    <t>账号或密码错误</t>
-  </si>
-  <si>
-    <t>The account number or password is incorrect</t>
-  </si>
-  <si>
-    <t>AccountRepeatLogin</t>
-  </si>
-  <si>
-    <t>账号重复登录</t>
-  </si>
-  <si>
-    <t>Account repeat login</t>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Sound Effect</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>设置</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1102,175 +1123,219 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10820" windowHeight="8140"/>
+    <workbookView windowWidth="17720" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Key</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>设置</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1336,6 +1342,17 @@
       </c>
       <c r="C21" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17720" windowHeight="4470"/>
+    <workbookView windowWidth="9590" windowHeight="7630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Key</t>
   </si>
@@ -170,6 +170,36 @@
   </si>
   <si>
     <t>Bag</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>AttackValue</t>
+  </si>
+  <si>
+    <t>生命值恢复</t>
+  </si>
+  <si>
+    <t>HPRegeneration</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1353,6 +1383,61 @@
       </c>
       <c r="C22" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9590" windowHeight="7630"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="21000" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Key</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>HPRegeneration</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>Shop</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1438,6 +1444,17 @@
       </c>
       <c r="C27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9870"/>
+    <workbookView windowWidth="13100" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Key</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Account repeat login</t>
+  </si>
+  <si>
+    <t>CoinsInsufficient</t>
+  </si>
+  <si>
+    <t>金币不足</t>
+  </si>
+  <si>
+    <t>Coin Insufficient</t>
+  </si>
+  <si>
+    <t>LackOfBagSpace</t>
+  </si>
+  <si>
+    <t>缺少背包空间</t>
+  </si>
+  <si>
+    <t>Lack of bag space</t>
   </si>
   <si>
     <t>登录</t>
@@ -1136,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1209,252 +1227,274 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Key</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Lack of bag space</t>
+  </si>
+  <si>
+    <t>UsedWeaponCannotSell</t>
+  </si>
+  <si>
+    <t>使用状态下的武器不能出售</t>
+  </si>
+  <si>
+    <t>Used weapons cannot sell</t>
   </si>
   <si>
     <t>登录</t>
@@ -1154,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1249,252 +1258,263 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Key</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Shop</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>Craft</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1515,6 +1521,17 @@
       </c>
       <c r="C31" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/本地化全局配置.xlsx
+++ b/Assets/Config/Excel/本地化全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13100" windowHeight="9870"/>
+    <workbookView windowWidth="18020" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Key</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Craft</t>
+  </si>
+  <si>
+    <t>商人-梅尔蒂</t>
+  </si>
+  <si>
+    <t>Merchant-Melty</t>
+  </si>
+  <si>
+    <t>工匠-达克内斯</t>
+  </si>
+  <si>
+    <t>Craft-Darkness</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1532,6 +1544,28 @@
       </c>
       <c r="C32" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
